--- a/data/trans_orig/IP07C21_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C21_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C024FE6C-C53A-454A-BD71-283B6A7146CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82063846-AA53-4F83-BBB0-ACEEABB063B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EFA29744-0137-4124-830D-85F8413E6E5D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3547E242-0650-4B86-9C48-622EC73210FB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="169">
   <si>
     <t>Menores según frecuencia de sentirse lleno de energía en 2023 (Tasa respuesta: 30,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>54,68%</t>
   </si>
   <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
   </si>
   <si>
     <t>63,53%</t>
   </si>
   <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
   </si>
   <si>
     <t>58,67%</t>
   </si>
   <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -104,28 +104,28 @@
     <t>26,77%</t>
   </si>
   <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
   </si>
   <si>
     <t>29,94%</t>
   </si>
   <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
   </si>
   <si>
     <t>28,2%</t>
   </si>
   <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -137,22 +137,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>18,52%</t>
+    <t>15,49%</t>
   </si>
   <si>
     <t>6,53%</t>
   </si>
   <si>
-    <t>30,29%</t>
+    <t>26,23%</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -161,7 +161,7 @@
     <t>5,02%</t>
   </si>
   <si>
-    <t>23,43%</t>
+    <t>27,57%</t>
   </si>
   <si>
     <t>0%</t>
@@ -173,7 +173,7 @@
     <t>2,75%</t>
   </si>
   <si>
-    <t>13,29%</t>
+    <t>14,61%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -182,13 +182,13 @@
     <t>10,07%</t>
   </si>
   <si>
-    <t>31,56%</t>
+    <t>30,47%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>18,02%</t>
+    <t>18,0%</t>
   </si>
   <si>
     <t>100%</t>
@@ -200,217 +200,211 @@
     <t>62,09%</t>
   </si>
   <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
   </si>
   <si>
     <t>63,08%</t>
   </si>
   <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
   </si>
   <si>
     <t>62,52%</t>
   </si>
   <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
   </si>
   <si>
     <t>30,27%</t>
   </si>
   <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
   </si>
   <si>
     <t>32,01%</t>
   </si>
   <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
   </si>
   <si>
     <t>31,02%</t>
   </si>
   <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
   </si>
   <si>
     <t>6,48%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
   </si>
   <si>
     <t>4,06%</t>
   </si>
   <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
     <t>Universitarios</t>
   </si>
   <si>
     <t>57,28%</t>
   </si>
   <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
   </si>
   <si>
     <t>56,78%</t>
   </si>
   <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
   </si>
   <si>
     <t>57,06%</t>
   </si>
   <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
   </si>
   <si>
     <t>38,68%</t>
   </si>
   <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
   </si>
   <si>
     <t>33,82%</t>
   </si>
   <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
   </si>
   <si>
     <t>36,55%</t>
   </si>
   <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
+    <t>45,08%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>9,71%</t>
+    <t>8,84%</t>
   </si>
   <si>
     <t>9,01%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
+    <t>20,32%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>10,71%</t>
+    <t>10,54%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>2,27%</t>
+    <t>2,26%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>6,62%</t>
+    <t>8,04%</t>
   </si>
   <si>
     <t>2,77%</t>
@@ -425,127 +419,127 @@
     <t>60,68%</t>
   </si>
   <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
   </si>
   <si>
     <t>61,85%</t>
   </si>
   <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
   </si>
   <si>
     <t>61,19%</t>
   </si>
   <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
   </si>
   <si>
     <t>31,69%</t>
   </si>
   <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
   </si>
   <si>
     <t>32,23%</t>
   </si>
   <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
   </si>
   <si>
     <t>31,92%</t>
   </si>
   <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
   </si>
   <si>
     <t>5,36%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
   </si>
   <si>
     <t>5,22%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
+    <t>1,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -960,7 +954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F40B70E-472F-4CE1-8F6F-29FBB946E9E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE1F454-B779-4E17-86B0-4F9C52E6DCB1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1784,10 +1778,10 @@
         <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,13 +1796,13 @@
         <v>902</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -1817,13 +1811,13 @@
         <v>3654</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -1832,13 +1826,13 @@
         <v>4556</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,13 +1847,13 @@
         <v>1198</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1868,13 +1862,13 @@
         <v>159</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -1883,13 +1877,13 @@
         <v>1356</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1910,7 +1904,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -1925,7 +1919,7 @@
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -1940,7 +1934,7 @@
         <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2008,13 +2002,13 @@
         <v>161402</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H22" s="7">
         <v>159</v>
@@ -2023,13 +2017,13 @@
         <v>125280</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M22" s="7">
         <v>343</v>
@@ -2038,13 +2032,13 @@
         <v>286683</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,13 +2053,13 @@
         <v>84302</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H23" s="7">
         <v>92</v>
@@ -2074,13 +2068,13 @@
         <v>65279</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M23" s="7">
         <v>192</v>
@@ -2089,13 +2083,13 @@
         <v>149581</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2110,13 +2104,13 @@
         <v>14261</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -2125,13 +2119,13 @@
         <v>10573</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M24" s="7">
         <v>31</v>
@@ -2140,13 +2134,13 @@
         <v>24834</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,13 +2155,13 @@
         <v>3040</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2176,13 +2170,13 @@
         <v>159</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2191,13 +2185,13 @@
         <v>3199</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2212,13 +2206,13 @@
         <v>2992</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2227,13 +2221,13 @@
         <v>1255</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -2242,13 +2236,13 @@
         <v>4248</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,7 +2298,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C21_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C21_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82063846-AA53-4F83-BBB0-ACEEABB063B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFD99895-5EEE-4010-93DE-6E55D36DD73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3547E242-0650-4B86-9C48-622EC73210FB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6CC30A0F-28B3-45C2-B613-59F257A2EA2A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="169">
-  <si>
-    <t>Menores según frecuencia de sentirse lleno de energía en 2023 (Tasa respuesta: 30,0%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="166">
+  <si>
+    <t>Menores según frecuencia de sentirse lleno de energía en 2023 (Tasa respuesta: 30,1%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,100 +68,94 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>3,46%</t>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>3,15%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>Poco</t>
   </si>
   <si>
     <t>0%</t>
@@ -170,25 +164,31 @@
     <t>9,99%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,349 +197,340 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
   </si>
   <si>
     <t>37,27%</t>
   </si>
   <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -954,7 +945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE1F454-B779-4E17-86B0-4F9C52E6DCB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8BB3D1-A26A-41D9-A1B8-E5AEE5367AD0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1072,10 +1063,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>9251</v>
+        <v>6799</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1087,10 +1078,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>8836</v>
+        <v>9786</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1105,7 +1096,7 @@
         <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>18087</v>
+        <v>16585</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1123,10 +1114,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>4529</v>
+        <v>5217</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1138,10 +1129,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>4165</v>
+        <v>2840</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1156,7 +1147,7 @@
         <v>13</v>
       </c>
       <c r="N5" s="7">
-        <v>8694</v>
+        <v>8058</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1177,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>586</v>
+        <v>391</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1192,7 +1183,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>909</v>
+        <v>1557</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1207,7 +1198,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>1495</v>
+        <v>1948</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>36</v>
@@ -1225,70 +1216,70 @@
         <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>849</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2571</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>849</v>
+        <v>2571</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>1703</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1300,22 +1291,22 @@
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>1703</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>50</v>
@@ -1327,25 +1318,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7">
+        <v>12407</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="7">
         <v>21</v>
       </c>
-      <c r="D9" s="7">
-        <v>16918</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="7">
-        <v>18</v>
-      </c>
       <c r="I9" s="7">
-        <v>13910</v>
+        <v>16754</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>51</v>
@@ -1360,7 +1351,7 @@
         <v>39</v>
       </c>
       <c r="N9" s="7">
-        <v>30827</v>
+        <v>29162</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>51</v>
@@ -1380,10 +1371,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="D10" s="7">
-        <v>122377</v>
+        <v>101078</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>53</v>
@@ -1395,10 +1386,10 @@
         <v>55</v>
       </c>
       <c r="H10" s="7">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I10" s="7">
-        <v>93420</v>
+        <v>113129</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>56</v>
@@ -1410,10 +1401,10 @@
         <v>58</v>
       </c>
       <c r="M10" s="7">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="N10" s="7">
-        <v>215797</v>
+        <v>214207</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>59</v>
@@ -1431,10 +1422,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D11" s="7">
-        <v>59670</v>
+        <v>48063</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>62</v>
@@ -1446,10 +1437,10 @@
         <v>64</v>
       </c>
       <c r="H11" s="7">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="I11" s="7">
-        <v>47403</v>
+        <v>78299</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>65</v>
@@ -1461,10 +1452,10 @@
         <v>67</v>
       </c>
       <c r="M11" s="7">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="N11" s="7">
-        <v>107073</v>
+        <v>126362</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>68</v>
@@ -1482,10 +1473,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>12773</v>
+        <v>6351</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>71</v>
@@ -1500,7 +1491,7 @@
         <v>9</v>
       </c>
       <c r="I12" s="7">
-        <v>6009</v>
+        <v>7569</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>74</v>
@@ -1512,10 +1503,10 @@
         <v>76</v>
       </c>
       <c r="M12" s="7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N12" s="7">
-        <v>18783</v>
+        <v>13920</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>77</v>
@@ -1533,100 +1524,100 @@
         <v>39</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>994</v>
+        <v>3238</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>80</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>4572</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>994</v>
+        <v>7809</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1289</v>
+        <v>590</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>1255</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>590</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M14" s="7">
-        <v>4</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2545</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1635,10 +1626,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="D15" s="7">
-        <v>197103</v>
+        <v>159319</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>51</v>
@@ -1650,10 +1641,10 @@
         <v>51</v>
       </c>
       <c r="H15" s="7">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="I15" s="7">
-        <v>148088</v>
+        <v>203568</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>51</v>
@@ -1665,10 +1656,10 @@
         <v>51</v>
       </c>
       <c r="M15" s="7">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N15" s="7">
-        <v>345191</v>
+        <v>362887</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>51</v>
@@ -1682,55 +1673,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>29775</v>
+        <v>18013</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I16" s="7">
-        <v>23023</v>
+        <v>24784</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N16" s="7">
-        <v>52799</v>
+        <v>42797</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1742,22 +1733,22 @@
         <v>28</v>
       </c>
       <c r="D17" s="7">
-        <v>20103</v>
+        <v>17464</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="H17" s="7">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I17" s="7">
-        <v>13712</v>
+        <v>20605</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>105</v>
@@ -1769,19 +1760,19 @@
         <v>107</v>
       </c>
       <c r="M17" s="7">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N17" s="7">
-        <v>33815</v>
+        <v>38069</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1790,49 +1781,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>902</v>
+        <v>3275</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H18" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I18" s="7">
-        <v>3654</v>
+        <v>5261</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M18" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N18" s="7">
-        <v>4556</v>
+        <v>8536</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1841,55 +1832,55 @@
         <v>39</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>1198</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>159</v>
+        <v>2044</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>1356</v>
+        <v>2044</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -1901,10 +1892,10 @@
         <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -1916,10 +1907,10 @@
         <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -1931,10 +1922,10 @@
         <v>32</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,10 +1934,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D21" s="7">
-        <v>51977</v>
+        <v>38752</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>51</v>
@@ -1958,10 +1949,10 @@
         <v>51</v>
       </c>
       <c r="H21" s="7">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="I21" s="7">
-        <v>40548</v>
+        <v>52693</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>51</v>
@@ -1973,10 +1964,10 @@
         <v>51</v>
       </c>
       <c r="M21" s="7">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N21" s="7">
-        <v>92526</v>
+        <v>91445</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>51</v>
@@ -1996,49 +1987,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="D22" s="7">
-        <v>161402</v>
+        <v>125890</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>159</v>
       </c>
       <c r="I22" s="7">
-        <v>125280</v>
+        <v>147699</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="N22" s="7">
-        <v>286683</v>
+        <v>273589</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,49 +2038,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D23" s="7">
-        <v>84302</v>
+        <v>70744</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="I23" s="7">
-        <v>65279</v>
+        <v>101744</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="N23" s="7">
-        <v>149581</v>
+        <v>172488</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,46 +2092,46 @@
         <v>15</v>
       </c>
       <c r="D24" s="7">
-        <v>14261</v>
+        <v>10017</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>146</v>
       </c>
       <c r="H24" s="7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I24" s="7">
-        <v>10573</v>
+        <v>14386</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>147</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>33</v>
+      </c>
+      <c r="N24" s="7">
+        <v>24403</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="M24" s="7">
-        <v>31</v>
-      </c>
-      <c r="N24" s="7">
-        <v>24834</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,40 +2140,40 @@
         <v>39</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>3040</v>
+        <v>3238</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>11</v>
+      </c>
+      <c r="I25" s="7">
+        <v>9186</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>159</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>157</v>
       </c>
       <c r="M25" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N25" s="7">
-        <v>3199</v>
+        <v>12424</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>158</v>
@@ -2191,58 +2182,58 @@
         <v>159</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>2992</v>
+        <v>590</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H26" s="7">
-        <v>2</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1255</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>1</v>
+      </c>
+      <c r="N26" s="7">
+        <v>590</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="M26" s="7">
-        <v>6</v>
-      </c>
-      <c r="N26" s="7">
-        <v>4248</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2251,10 +2242,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="D27" s="7">
-        <v>265998</v>
+        <v>210479</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>51</v>
@@ -2266,10 +2257,10 @@
         <v>51</v>
       </c>
       <c r="H27" s="7">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="I27" s="7">
-        <v>202546</v>
+        <v>273016</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>51</v>
@@ -2281,10 +2272,10 @@
         <v>51</v>
       </c>
       <c r="M27" s="7">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="N27" s="7">
-        <v>468544</v>
+        <v>483494</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>51</v>
@@ -2298,7 +2289,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
